--- a/volatility/src/4th.xlsx
+++ b/volatility/src/4th.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/atsushi_mld/git/volatility/volatility/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4DA7FEA-5193-F140-81F3-7FFC7FB8AF09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{794EBC20-3FA9-9449-A1AD-5A004746577B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11280" yWindow="460" windowWidth="26100" windowHeight="21140" tabRatio="742" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11280" yWindow="460" windowWidth="26100" windowHeight="21140" tabRatio="742" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="jpy" sheetId="51" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
   <si>
     <t>amount</t>
     <phoneticPr fontId="1"/>
@@ -148,7 +148,71 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>AUDNZD</t>
+    <t>AUDCHF</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>AUDJPY</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>AUDUSD</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>CADJPY</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>CHFJPY</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>EURAUD</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>EURCHF</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>EURJPY</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>EURUSD</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>GBPAUD</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>GBPCHF</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>GBPUSD</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>NZDJPY</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>USDCAD</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>USDCHF</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>USDJPY</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>EURGBP</t>
   </si>
 </sst>
 </file>
@@ -619,7 +683,7 @@
   <dimension ref="B1:N20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -643,7 +707,7 @@
         <v>735</v>
       </c>
       <c r="J1" s="1">
-        <f>VLOOKUP(B2,median!A1:B4,2)</f>
+        <f>VLOOKUP(B2,median!A1:B20,2)</f>
         <v>2.6</v>
       </c>
       <c r="K1" s="1">
@@ -862,8 +926,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B1:N20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -887,12 +951,12 @@
         <v>735</v>
       </c>
       <c r="J1" s="1">
-        <f>VLOOKUP(B2,median!A1:B4,2)</f>
-        <v>1.1000000000000001</v>
+        <f>VLOOKUP(B2,median!A1:B20,2)</f>
+        <v>1.2</v>
       </c>
       <c r="K1" s="1">
         <f>1/J1</f>
-        <v>0.90909090909090906</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>12</v>
@@ -900,7 +964,7 @@
     </row>
     <row r="2" spans="2:14" ht="24" customHeight="1">
       <c r="B2" s="10" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>10</v>
@@ -910,7 +974,7 @@
       </c>
       <c r="J2" s="1" t="str">
         <f>MID(B2,4,3)</f>
-        <v>NZD</v>
+        <v>GBP</v>
       </c>
       <c r="N2" s="12" t="s">
         <v>13</v>
@@ -921,11 +985,11 @@
       <c r="C3" s="6"/>
       <c r="J3" s="1">
         <f>VLOOKUP(J2,'jpy rate'!A1:B3,2)</f>
-        <v>69.099999999999994</v>
+        <v>139.6</v>
       </c>
       <c r="K3" s="1">
         <f>100/J3</f>
-        <v>1.4471780028943562</v>
+        <v>0.71633237822349571</v>
       </c>
       <c r="N3" s="12" t="s">
         <v>16</v>
@@ -942,18 +1006,18 @@
       <c r="C5" s="6"/>
       <c r="K5" s="1">
         <f>I1*K1*K3</f>
-        <v>966.97802920668335</v>
+        <v>438.75358166189113</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="24" customHeight="1">
       <c r="B6" s="2">
         <f>INT(K6*100)</f>
-        <v>14504</v>
+        <v>6581</v>
       </c>
       <c r="C6" s="6"/>
       <c r="K6" s="1">
         <f>K5*3/20</f>
-        <v>145.04670438100248</v>
+        <v>65.813037249283667</v>
       </c>
       <c r="N6" s="8" t="s">
         <v>3</v>
@@ -964,7 +1028,7 @@
       <c r="C7" s="6"/>
       <c r="I7" s="1">
         <f>J1/100</f>
-        <v>1.1000000000000001E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="N7" s="8" t="s">
         <v>4</v>
@@ -975,7 +1039,7 @@
       <c r="C8" s="6"/>
       <c r="I8" s="1">
         <f>ROUND(I7/amount!B2,4)</f>
-        <v>5.4999999999999997E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="9" spans="2:14" ht="24" customHeight="1">
@@ -984,7 +1048,7 @@
       </c>
       <c r="C9" s="9">
         <f>IF($C$2="buy",I11,J11)</f>
-        <v>0.98899999999999999</v>
+        <v>0.98799999999999999</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="24" customHeight="1">
@@ -993,7 +1057,7 @@
       </c>
       <c r="C10" s="9">
         <f>IF($C$2="buy",I12,J12)</f>
-        <v>1.0109999999999999</v>
+        <v>1.012</v>
       </c>
       <c r="D10" s="3"/>
     </row>
@@ -1003,11 +1067,11 @@
       <c r="D11" s="3"/>
       <c r="I11" s="1">
         <f>D2+I7</f>
-        <v>1.0109999999999999</v>
+        <v>1.012</v>
       </c>
       <c r="J11" s="1">
         <f>I12</f>
-        <v>0.98899999999999999</v>
+        <v>0.98799999999999999</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="24" customHeight="1">
@@ -1016,15 +1080,15 @@
       </c>
       <c r="C12" s="9">
         <f>IF($C$2="buy",I14,J14)</f>
-        <v>1.0055000000000001</v>
+        <v>1.006</v>
       </c>
       <c r="I12" s="1">
         <f>D2-I7</f>
-        <v>0.98899999999999999</v>
+        <v>0.98799999999999999</v>
       </c>
       <c r="J12" s="1">
         <f>I11</f>
-        <v>1.0109999999999999</v>
+        <v>1.012</v>
       </c>
     </row>
     <row r="13" spans="2:14" ht="24" customHeight="1">
@@ -1033,7 +1097,7 @@
       </c>
       <c r="C13" s="9">
         <f>IF($C$2="buy",I15,J15)</f>
-        <v>1.0165</v>
+        <v>1.018</v>
       </c>
     </row>
     <row r="14" spans="2:14" ht="24" customHeight="1">
@@ -1042,15 +1106,15 @@
       </c>
       <c r="C14" s="9">
         <f>IF($C$2="buy",I16,J16)</f>
-        <v>0.99450000000000005</v>
+        <v>0.99399999999999999</v>
       </c>
       <c r="I14" s="1">
         <f>D2-I8</f>
-        <v>0.99450000000000005</v>
+        <v>0.99399999999999999</v>
       </c>
       <c r="J14" s="1">
         <f>D2+I8</f>
-        <v>1.0055000000000001</v>
+        <v>1.006</v>
       </c>
     </row>
     <row r="15" spans="2:14" ht="24" customHeight="1">
@@ -1058,11 +1122,11 @@
       <c r="C15" s="6"/>
       <c r="I15" s="1">
         <f>I14-I7</f>
-        <v>0.98350000000000004</v>
+        <v>0.98199999999999998</v>
       </c>
       <c r="J15" s="1">
         <f>J14+I7</f>
-        <v>1.0165</v>
+        <v>1.018</v>
       </c>
     </row>
     <row r="16" spans="2:14" ht="24" customHeight="1">
@@ -1070,11 +1134,11 @@
       <c r="C16" s="6"/>
       <c r="I16" s="1">
         <f>I14+I7</f>
-        <v>1.0055000000000001</v>
+        <v>1.006</v>
       </c>
       <c r="J16" s="1">
         <f>J14-I7</f>
-        <v>0.99450000000000005</v>
+        <v>0.99399999999999999</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="24" customHeight="1">
@@ -1113,7 +1177,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1212,10 +1276,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection sqref="A1:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.6640625" defaultRowHeight="21" customHeight="1"/>
@@ -1225,7 +1289,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="21" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B1" s="5">
         <v>1.1000000000000001</v>
@@ -1233,26 +1297,154 @@
     </row>
     <row r="2" spans="1:2" ht="21" customHeight="1">
       <c r="A2" s="12" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B2" s="5">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="21" customHeight="1">
       <c r="A3" s="12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B3" s="5">
-        <v>2.6</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="21" customHeight="1">
       <c r="A4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="21" customHeight="1">
+      <c r="A5" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="21" customHeight="1">
+      <c r="A6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="21" customHeight="1">
+      <c r="A7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="5">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="21" customHeight="1">
+      <c r="A8" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="21" customHeight="1">
+      <c r="A9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="21" customHeight="1">
+      <c r="A10" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="21" customHeight="1">
+      <c r="A11" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="5">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="21" customHeight="1">
+      <c r="A12" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="5">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="21" customHeight="1">
+      <c r="A13" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="21" customHeight="1">
+      <c r="A14" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="5">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="21" customHeight="1">
+      <c r="A15" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="5">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="21" customHeight="1">
+      <c r="A16" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="5">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="21" customHeight="1">
+      <c r="A17" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B17" s="5">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="21" customHeight="1">
+      <c r="A18" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="5">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="21" customHeight="1">
+      <c r="A19" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="5">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="21" customHeight="1">
+      <c r="A20" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="5">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/volatility/src/4th.xlsx
+++ b/volatility/src/4th.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
   <workbookPr date1904="1" showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/atsushi_mld/git/volatility/volatility/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{794EBC20-3FA9-9449-A1AD-5A004746577B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949C6332-2D2D-4E48-BB0C-9603B00A73F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11280" yWindow="460" windowWidth="26100" windowHeight="21140" tabRatio="742" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -212,7 +212,7 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>EURGBP</t>
+    <t>NZDUSD</t>
   </si>
 </sst>
 </file>
@@ -683,7 +683,7 @@
   <dimension ref="B1:N20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -704,7 +704,7 @@
       </c>
       <c r="I1" s="1">
         <f>amount!B1</f>
-        <v>735</v>
+        <v>1000</v>
       </c>
       <c r="J1" s="1">
         <f>VLOOKUP(B2,median!A1:B20,2)</f>
@@ -726,7 +726,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="10">
-        <v>102</v>
+        <v>139.59350000000001</v>
       </c>
       <c r="J2" s="1" t="str">
         <f>MID(B2,4,3)</f>
@@ -758,7 +758,7 @@
       <c r="C5" s="6"/>
       <c r="K5" s="1">
         <f>I1*K1*K3</f>
-        <v>282.69230769230768</v>
+        <v>384.61538461538458</v>
       </c>
       <c r="N5" s="8" t="s">
         <v>4</v>
@@ -767,12 +767,12 @@
     <row r="6" spans="2:14" ht="24" customHeight="1">
       <c r="B6" s="2">
         <f>INT(K6*100)</f>
-        <v>4240</v>
+        <v>5769</v>
       </c>
       <c r="C6" s="6"/>
       <c r="K6" s="1">
         <f>K5*3/20</f>
-        <v>42.403846153846153</v>
+        <v>57.692307692307693</v>
       </c>
     </row>
     <row r="7" spans="2:14" ht="24" customHeight="1">
@@ -797,7 +797,7 @@
       </c>
       <c r="C9" s="9">
         <f>IF($C$2="buy",I11,J11)</f>
-        <v>99.4</v>
+        <v>136.99350000000001</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="24" customHeight="1">
@@ -806,7 +806,7 @@
       </c>
       <c r="C10" s="9">
         <f>IF($C$2="buy",I12,J12)</f>
-        <v>104.6</v>
+        <v>142.1935</v>
       </c>
       <c r="D10" s="3"/>
     </row>
@@ -816,11 +816,11 @@
       <c r="D11" s="3"/>
       <c r="I11" s="1">
         <f>D2+I7</f>
-        <v>104.6</v>
+        <v>142.1935</v>
       </c>
       <c r="J11" s="1">
         <f>I12</f>
-        <v>99.4</v>
+        <v>136.99350000000001</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="24" customHeight="1">
@@ -829,15 +829,15 @@
       </c>
       <c r="C12" s="9">
         <f>IF($C$2="buy",I14,J14)</f>
-        <v>103.3</v>
+        <v>140.89350000000002</v>
       </c>
       <c r="I12" s="1">
         <f>D2-I7</f>
-        <v>99.4</v>
+        <v>136.99350000000001</v>
       </c>
       <c r="J12" s="1">
         <f>I11</f>
-        <v>104.6</v>
+        <v>142.1935</v>
       </c>
     </row>
     <row r="13" spans="2:14" ht="24" customHeight="1">
@@ -846,7 +846,7 @@
       </c>
       <c r="C13" s="9">
         <f>IF($C$2="buy",I15,J15)</f>
-        <v>105.89999999999999</v>
+        <v>143.49350000000001</v>
       </c>
     </row>
     <row r="14" spans="2:14" ht="24" customHeight="1">
@@ -855,15 +855,15 @@
       </c>
       <c r="C14" s="9">
         <f>IF($C$2="buy",I16,J16)</f>
-        <v>100.7</v>
+        <v>138.29350000000002</v>
       </c>
       <c r="I14" s="1">
         <f>D2-I8</f>
-        <v>100.7</v>
+        <v>138.29349999999999</v>
       </c>
       <c r="J14" s="1">
         <f>D2+I8</f>
-        <v>103.3</v>
+        <v>140.89350000000002</v>
       </c>
     </row>
     <row r="15" spans="2:14" ht="24" customHeight="1">
@@ -871,11 +871,11 @@
       <c r="C15" s="6"/>
       <c r="I15" s="1">
         <f>I14-I7</f>
-        <v>98.100000000000009</v>
+        <v>135.6935</v>
       </c>
       <c r="J15" s="1">
         <f>J14+I7</f>
-        <v>105.89999999999999</v>
+        <v>143.49350000000001</v>
       </c>
     </row>
     <row r="16" spans="2:14" ht="24" customHeight="1">
@@ -883,11 +883,11 @@
       <c r="C16" s="6"/>
       <c r="I16" s="1">
         <f>I14+I7</f>
-        <v>103.3</v>
+        <v>140.89349999999999</v>
       </c>
       <c r="J16" s="1">
         <f>J14-I7</f>
-        <v>100.7</v>
+        <v>138.29350000000002</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="24" customHeight="1">
@@ -927,7 +927,7 @@
   <dimension ref="B1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -948,7 +948,7 @@
       </c>
       <c r="I1" s="1">
         <f>amount!B1</f>
-        <v>735</v>
+        <v>1000</v>
       </c>
       <c r="J1" s="1">
         <f>VLOOKUP(B2,median!A1:B20,2)</f>
@@ -970,11 +970,11 @@
         <v>10</v>
       </c>
       <c r="D2" s="10">
-        <v>1</v>
+        <v>0.63705299999999998</v>
       </c>
       <c r="J2" s="1" t="str">
         <f>MID(B2,4,3)</f>
-        <v>GBP</v>
+        <v>USD</v>
       </c>
       <c r="N2" s="12" t="s">
         <v>13</v>
@@ -985,11 +985,11 @@
       <c r="C3" s="6"/>
       <c r="J3" s="1">
         <f>VLOOKUP(J2,'jpy rate'!A1:B3,2)</f>
-        <v>139.6</v>
+        <v>108.6</v>
       </c>
       <c r="K3" s="1">
         <f>100/J3</f>
-        <v>0.71633237822349571</v>
+        <v>0.92081031307550654</v>
       </c>
       <c r="N3" s="12" t="s">
         <v>16</v>
@@ -1006,18 +1006,18 @@
       <c r="C5" s="6"/>
       <c r="K5" s="1">
         <f>I1*K1*K3</f>
-        <v>438.75358166189113</v>
+        <v>767.34192756292214</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="24" customHeight="1">
       <c r="B6" s="2">
         <f>INT(K6*100)</f>
-        <v>6581</v>
+        <v>11510</v>
       </c>
       <c r="C6" s="6"/>
       <c r="K6" s="1">
         <f>K5*3/20</f>
-        <v>65.813037249283667</v>
+        <v>115.10128913443832</v>
       </c>
       <c r="N6" s="8" t="s">
         <v>3</v>
@@ -1048,7 +1048,7 @@
       </c>
       <c r="C9" s="9">
         <f>IF($C$2="buy",I11,J11)</f>
-        <v>0.98799999999999999</v>
+        <v>0.62505299999999997</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="24" customHeight="1">
@@ -1057,7 +1057,7 @@
       </c>
       <c r="C10" s="9">
         <f>IF($C$2="buy",I12,J12)</f>
-        <v>1.012</v>
+        <v>0.64905299999999999</v>
       </c>
       <c r="D10" s="3"/>
     </row>
@@ -1067,11 +1067,11 @@
       <c r="D11" s="3"/>
       <c r="I11" s="1">
         <f>D2+I7</f>
-        <v>1.012</v>
+        <v>0.64905299999999999</v>
       </c>
       <c r="J11" s="1">
         <f>I12</f>
-        <v>0.98799999999999999</v>
+        <v>0.62505299999999997</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="24" customHeight="1">
@@ -1080,15 +1080,15 @@
       </c>
       <c r="C12" s="9">
         <f>IF($C$2="buy",I14,J14)</f>
-        <v>1.006</v>
+        <v>0.64305299999999999</v>
       </c>
       <c r="I12" s="1">
         <f>D2-I7</f>
-        <v>0.98799999999999999</v>
+        <v>0.62505299999999997</v>
       </c>
       <c r="J12" s="1">
         <f>I11</f>
-        <v>1.012</v>
+        <v>0.64905299999999999</v>
       </c>
     </row>
     <row r="13" spans="2:14" ht="24" customHeight="1">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="C13" s="9">
         <f>IF($C$2="buy",I15,J15)</f>
-        <v>1.018</v>
+        <v>0.655053</v>
       </c>
     </row>
     <row r="14" spans="2:14" ht="24" customHeight="1">
@@ -1106,15 +1106,15 @@
       </c>
       <c r="C14" s="9">
         <f>IF($C$2="buy",I16,J16)</f>
-        <v>0.99399999999999999</v>
+        <v>0.63105299999999998</v>
       </c>
       <c r="I14" s="1">
         <f>D2-I8</f>
-        <v>0.99399999999999999</v>
+        <v>0.63105299999999998</v>
       </c>
       <c r="J14" s="1">
         <f>D2+I8</f>
-        <v>1.006</v>
+        <v>0.64305299999999999</v>
       </c>
     </row>
     <row r="15" spans="2:14" ht="24" customHeight="1">
@@ -1122,11 +1122,11 @@
       <c r="C15" s="6"/>
       <c r="I15" s="1">
         <f>I14-I7</f>
-        <v>0.98199999999999998</v>
+        <v>0.61905299999999996</v>
       </c>
       <c r="J15" s="1">
         <f>J14+I7</f>
-        <v>1.018</v>
+        <v>0.655053</v>
       </c>
     </row>
     <row r="16" spans="2:14" ht="24" customHeight="1">
@@ -1134,11 +1134,11 @@
       <c r="C16" s="6"/>
       <c r="I16" s="1">
         <f>I14+I7</f>
-        <v>1.006</v>
+        <v>0.64305299999999999</v>
       </c>
       <c r="J16" s="1">
         <f>J14-I7</f>
-        <v>0.99399999999999999</v>
+        <v>0.63105299999999998</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="24" customHeight="1">
@@ -1191,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5">
-        <v>735</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="21" customHeight="1">
@@ -1247,7 +1247,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="5">
-        <v>69.099999999999994</v>
+        <v>69.2</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="21" customHeight="1">
@@ -1255,7 +1255,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="5">
-        <v>109.2</v>
+        <v>108.6</v>
       </c>
     </row>
   </sheetData>
